--- a/ACME_Dispatcher/Data/Config.xlsx
+++ b/ACME_Dispatcher/Data/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aaITI-(.NET)\RPA\ACME_Dispatcher\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aaITI-(.NET)\RPA\ACME_VerifyAccountPositions\ACME_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -720,7 +720,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
